--- a/sample.xlsx
+++ b/sample.xlsx
@@ -451,7 +451,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>44749.74001614036</v>
+        <v>44757.49526313379</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
